--- a/trunk/Report 3/report 3-50900003- TTCNPM.xlsx
+++ b/trunk/Report 3/report 3-50900003- TTCNPM.xlsx
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>Project</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>24/3/2012</t>
+  </si>
+  <si>
+    <t>họp nhóm thảo luận</t>
   </si>
 </sst>
 </file>
@@ -496,12 +499,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -543,7 +540,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -849,8 +852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -879,10 +882,10 @@
       <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="12"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -958,18 +961,18 @@
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="26" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="23"/>
+      <c r="G4" s="21"/>
       <c r="H4" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="17">
         <v>0.5</v>
       </c>
       <c r="J4" s="2">
@@ -982,24 +985,24 @@
       <c r="O4" s="9"/>
     </row>
     <row r="5" spans="1:15" ht="15.75">
-      <c r="A5" s="26"/>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="24"/>
+      <c r="B5" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="23"/>
+      <c r="G5" s="21"/>
       <c r="H5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="22">
         <v>0.5</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="23">
         <v>0.25</v>
       </c>
       <c r="K5" s="2">
@@ -1017,7 +1020,7 @@
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -1041,15 +1044,15 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="10"/>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22" t="s">
+      <c r="C7" s="15"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="20" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="8">
@@ -1068,11 +1071,11 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="11"/>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -1093,13 +1096,13 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="6"/>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -1122,11 +1125,11 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="6"/>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="16"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -1151,15 +1154,23 @@
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="16"/>
+      <c r="B11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.5</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -1168,15 +1179,25 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="6"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="16"/>
+      <c r="B12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="14"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.25</v>
+      </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
